--- a/biology/Virologie/Coguvirus/Coguvirus.xlsx
+++ b/biology/Virologie/Coguvirus/Coguvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coguvirus est un genre de virus de la famille des Phenuiviridae, qui comprend deux espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin de polarité négative, rattachés au  groupe V de la classification Baltimore. Ces virus infectent des plantes (phytovirus), la gamme de plantes-hôtes étant limitée aux agrumes.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Coguvirus » dérive de Concave gum-associated virus, nom d'une souche de l'espèce-type de ce genre, Citrus coguvirus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Coguvirus » dérive de Concave gum-associated virus, nom d'une souche de l'espèce-type de ce genre, Citrus coguvirus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome, segmenté (bipartite), est constitué de deux molécules d'ARN linéaire à simple brin de polarité négative ou ambisens[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome, segmenté (bipartite), est constitué de deux molécules d'ARN linéaire à simple brin de polarité négative ou ambisens. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 février 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 février 2021) :
 Citrus coguvirus
 Coguvirus eburi
 non-classés
